--- a/xlsx/蒙古语西里尔字母_intext.xlsx
+++ b/xlsx/蒙古语西里尔字母_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>蒙古语西里尔字母</t>
   </si>
@@ -29,7 +29,7 @@
     <t>蒙古语</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_蒙古语西里尔字母</t>
+    <t>政策_政策_维基百科_蒙古语西里尔字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%87%8C%E5%B0%94%E5%AD%97%E6%AF%8D</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E8%92%99%E5%8F%A4%E6%96%87%E5%AD%97</t>
   </si>
   <si>
-    <t>傳統蒙古文字</t>
+    <t>传统蒙古文字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E8%AF%AD%E6%8B%89%E4%B8%81%E5%AD%97%E6%AF%8D</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蒙古人民共和國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%A6%AE%E5%98%8E%E7%A6%AE%E5%AD%97%E6%AF%8D</t>
   </si>
   <si>
-    <t>阿禮嘎禮字母</t>
+    <t>阿礼嘎礼字母</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%BF%92%E5%AD%97%E6%AF%8D</t>
@@ -957,7 +954,7 @@
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -983,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1012,10 +1009,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1041,10 +1038,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
         <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1070,10 +1067,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
         <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1099,10 +1096,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1128,10 +1125,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>26</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1157,10 +1154,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
         <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>28</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -1186,10 +1183,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
         <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1215,10 +1212,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1244,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
         <v>33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>34</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1273,10 +1270,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
         <v>35</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1302,10 +1299,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" t="s">
-        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1331,10 +1328,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1360,10 +1357,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" t="s">
-        <v>42</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1389,10 +1386,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1418,10 +1415,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1447,10 +1444,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1476,10 +1473,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1502,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
         <v>51</v>
-      </c>
-      <c r="F27" t="s">
-        <v>52</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1534,10 +1531,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1563,10 +1560,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1592,10 +1589,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1621,10 +1618,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1650,10 +1647,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1679,10 +1676,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1708,10 +1705,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1737,10 +1734,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1766,10 +1763,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1795,10 +1792,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1824,10 +1821,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1853,10 +1850,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1882,10 +1879,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1911,10 +1908,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1940,10 +1937,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1969,10 +1966,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1998,10 +1995,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2027,10 +2024,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2056,10 +2053,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2085,10 +2082,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2114,10 +2111,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2143,10 +2140,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2172,10 +2169,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2201,10 +2198,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2230,10 +2227,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2259,10 +2256,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2288,10 +2285,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2317,10 +2314,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2346,10 +2343,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>7</v>
@@ -2375,10 +2372,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2404,10 +2401,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2433,10 +2430,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2462,10 +2459,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2491,10 +2488,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2520,10 +2517,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
